--- a/Results/DAFJS.xlsx
+++ b/Results/DAFJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\shj\result\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8328A-29F3-4889-8F10-8808E2DADC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DDF43-D3D8-4F87-B7ED-92D251124520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="2055" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="2" r:id="rId1"/>
@@ -269,9 +269,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -390,12 +391,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,9 +403,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,6 +413,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,119 +708,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21086D8F-211A-4712-B26F-250F9EE7122A}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U32"/>
+    <sheetView topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="15" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -838,7 +839,7 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="16">
         <v>5.74</v>
       </c>
       <c r="J3" s="2">
@@ -850,7 +851,7 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="18">
         <v>3.19</v>
       </c>
       <c r="O3" s="2">
@@ -862,7 +863,7 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="18">
         <v>10.130000000000001</v>
       </c>
       <c r="T3" s="2">
@@ -874,13 +875,13 @@
       <c r="V3" s="7">
         <v>0</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="18">
         <v>0.46</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="16">
         <v>87.85</v>
       </c>
       <c r="J4" s="2">
@@ -911,7 +912,7 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="18">
         <v>7.44</v>
       </c>
       <c r="O4" s="2">
@@ -923,7 +924,7 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="18">
         <v>6.85</v>
       </c>
       <c r="T4" s="2">
@@ -935,13 +936,13 @@
       <c r="V4" s="7">
         <v>0</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="18">
         <v>0.88</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -960,7 +961,7 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="16">
         <v>8.07</v>
       </c>
       <c r="J5" s="2">
@@ -972,7 +973,7 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="18">
         <v>1.36</v>
       </c>
       <c r="O5" s="2">
@@ -984,7 +985,7 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="18">
         <v>2.78</v>
       </c>
       <c r="T5" s="2">
@@ -996,13 +997,13 @@
       <c r="V5" s="7">
         <v>0</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="18">
         <v>0.04</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1022,7 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="16">
         <v>1.74</v>
       </c>
       <c r="J6" s="2">
@@ -1033,7 +1034,7 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="18">
         <v>0.65</v>
       </c>
       <c r="O6" s="2">
@@ -1045,7 +1046,7 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="18">
         <v>2.97</v>
       </c>
       <c r="T6" s="2">
@@ -1057,13 +1058,13 @@
       <c r="V6" s="7">
         <v>0</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="18">
         <v>0.04</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="16">
         <v>2921.14</v>
       </c>
       <c r="J7" s="2">
@@ -1094,7 +1095,7 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="18">
         <v>839.64</v>
       </c>
       <c r="O7" s="2">
@@ -1106,7 +1107,7 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="18">
         <v>123.23</v>
       </c>
       <c r="T7" s="2">
@@ -1118,13 +1119,13 @@
       <c r="V7" s="7">
         <v>0</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="18">
         <v>2.35</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1144,8 @@
       <c r="G8" s="5">
         <v>19.850000000000001</v>
       </c>
-      <c r="H8" s="4">
-        <v>3600</v>
+      <c r="H8" s="16">
+        <v>3600.12</v>
       </c>
       <c r="J8" s="6">
         <v>405</v>
@@ -1155,8 +1156,8 @@
       <c r="L8" s="7">
         <v>13.83</v>
       </c>
-      <c r="M8" s="3">
-        <v>3600</v>
+      <c r="M8" s="18">
+        <v>3600.22</v>
       </c>
       <c r="O8" s="6">
         <v>404</v>
@@ -1167,7 +1168,7 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="18">
         <v>459.46</v>
       </c>
       <c r="T8" s="6">
@@ -1179,7 +1180,7 @@
       <c r="V8" s="7">
         <v>0</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="18">
         <v>133.09</v>
       </c>
       <c r="Y8" s="6"/>
@@ -1187,7 +1188,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1206,8 +1207,8 @@
       <c r="G9" s="5">
         <v>4.75</v>
       </c>
-      <c r="H9" s="4">
-        <v>3600</v>
+      <c r="H9" s="16">
+        <v>3600.25</v>
       </c>
       <c r="J9" s="6">
         <v>506</v>
@@ -1218,8 +1219,8 @@
       <c r="L9" s="7">
         <v>0.99</v>
       </c>
-      <c r="M9" s="3">
-        <v>3600</v>
+      <c r="M9" s="18">
+        <v>3600.23</v>
       </c>
       <c r="O9" s="6">
         <v>505</v>
@@ -1230,7 +1231,7 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="18">
         <v>615.54999999999995</v>
       </c>
       <c r="T9" s="6">
@@ -1242,7 +1243,7 @@
       <c r="V9" s="7">
         <v>0</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="18">
         <v>5.68</v>
       </c>
       <c r="Y9" s="6"/>
@@ -1250,7 +1251,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1270,7 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="16">
         <v>210.69</v>
       </c>
       <c r="J10" s="6">
@@ -1281,7 +1282,7 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="18">
         <v>27.05</v>
       </c>
       <c r="O10" s="6">
@@ -1293,7 +1294,7 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="18">
         <v>23.08</v>
       </c>
       <c r="T10" s="6">
@@ -1305,7 +1306,7 @@
       <c r="V10" s="7">
         <v>0</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="18">
         <v>0.06</v>
       </c>
       <c r="Y10" s="6"/>
@@ -1313,7 +1314,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1333,8 @@
       <c r="G11" s="5">
         <v>32.51</v>
       </c>
-      <c r="H11" s="4">
-        <v>3600</v>
+      <c r="H11" s="16">
+        <v>3600.12</v>
       </c>
       <c r="J11" s="6">
         <v>465</v>
@@ -1344,8 +1345,8 @@
       <c r="L11" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="M11" s="3">
-        <v>3600</v>
+      <c r="M11" s="18">
+        <v>3600.15</v>
       </c>
       <c r="O11" s="6">
         <v>459</v>
@@ -1356,7 +1357,7 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="18">
         <v>1125.1199999999999</v>
       </c>
       <c r="T11" s="6">
@@ -1368,15 +1369,15 @@
       <c r="V11" s="7">
         <v>30.37</v>
       </c>
-      <c r="W11" s="3">
-        <v>3600</v>
+      <c r="W11" s="18">
+        <v>3600.13</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1396,8 @@
       <c r="G12" s="5">
         <v>36.72</v>
       </c>
-      <c r="H12" s="4">
-        <v>3600</v>
+      <c r="H12" s="16">
+        <v>3600.37</v>
       </c>
       <c r="J12" s="6">
         <v>524</v>
@@ -1407,8 +1408,8 @@
       <c r="L12" s="7">
         <v>35.880000000000003</v>
       </c>
-      <c r="M12" s="3">
-        <v>3600</v>
+      <c r="M12" s="18">
+        <v>3600.13</v>
       </c>
       <c r="O12" s="6">
         <v>517</v>
@@ -1419,8 +1420,8 @@
       <c r="Q12" s="7">
         <v>0.39</v>
       </c>
-      <c r="R12" s="3">
-        <v>3600</v>
+      <c r="R12" s="18">
+        <v>3600.13</v>
       </c>
       <c r="T12" s="6">
         <v>517</v>
@@ -1431,15 +1432,15 @@
       <c r="V12" s="7">
         <v>35.01</v>
       </c>
-      <c r="W12" s="3">
-        <v>3600</v>
+      <c r="W12" s="18">
+        <v>3600.28</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1458,8 +1459,8 @@
       <c r="G13" s="5">
         <v>2.66</v>
       </c>
-      <c r="H13" s="4">
-        <v>3600</v>
+      <c r="H13" s="16">
+        <v>3600.05</v>
       </c>
       <c r="J13" s="6">
         <v>658</v>
@@ -1470,7 +1471,7 @@
       <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="18">
         <v>329.26</v>
       </c>
       <c r="O13" s="6">
@@ -1482,7 +1483,7 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="18">
         <v>753.86</v>
       </c>
       <c r="T13" s="6">
@@ -1494,7 +1495,7 @@
       <c r="V13" s="7">
         <v>0</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="18">
         <v>1.08</v>
       </c>
       <c r="Y13" s="6"/>
@@ -1502,7 +1503,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1521,8 +1522,8 @@
       <c r="G14" s="5">
         <v>19.940000000000001</v>
       </c>
-      <c r="H14" s="4">
-        <v>3600</v>
+      <c r="H14" s="16">
+        <v>3600.29</v>
       </c>
       <c r="J14" s="6">
         <v>639</v>
@@ -1533,8 +1534,8 @@
       <c r="L14" s="7">
         <v>17.059999999999999</v>
       </c>
-      <c r="M14" s="3">
-        <v>3600</v>
+      <c r="M14" s="18">
+        <v>3600.09</v>
       </c>
       <c r="O14" s="6">
         <v>620</v>
@@ -1545,8 +1546,8 @@
       <c r="Q14" s="7">
         <v>10.55</v>
       </c>
-      <c r="R14" s="3">
-        <v>3600</v>
+      <c r="R14" s="18">
+        <v>3600.25</v>
       </c>
       <c r="T14" s="6">
         <v>598</v>
@@ -1557,15 +1558,15 @@
       <c r="V14" s="7">
         <v>11.37</v>
       </c>
-      <c r="W14" s="3">
-        <v>3600</v>
+      <c r="W14" s="18">
+        <v>3600.21</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1584,8 +1585,8 @@
       <c r="G15" s="5">
         <v>52.57</v>
       </c>
-      <c r="H15" s="4">
-        <v>3600</v>
+      <c r="H15" s="16">
+        <v>3600.23</v>
       </c>
       <c r="J15" s="6">
         <v>637</v>
@@ -1596,8 +1597,8 @@
       <c r="L15" s="7">
         <v>52.12</v>
       </c>
-      <c r="M15" s="3">
-        <v>3600</v>
+      <c r="M15" s="18">
+        <v>3600.24</v>
       </c>
       <c r="O15" s="6">
         <v>632</v>
@@ -1608,7 +1609,7 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="18">
         <v>334.16</v>
       </c>
       <c r="T15" s="6">
@@ -1620,15 +1621,15 @@
       <c r="V15" s="7">
         <v>51.97</v>
       </c>
-      <c r="W15" s="3">
-        <v>3600</v>
+      <c r="W15" s="18">
+        <v>3600.08</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1647,8 +1648,8 @@
       <c r="G16" s="5">
         <v>51.09</v>
       </c>
-      <c r="H16" s="4">
-        <v>3600</v>
+      <c r="H16" s="16">
+        <v>3600.04</v>
       </c>
       <c r="J16" s="6">
         <v>729</v>
@@ -1659,8 +1660,8 @@
       <c r="L16" s="7">
         <v>50.62</v>
       </c>
-      <c r="M16" s="3">
-        <v>3600</v>
+      <c r="M16" s="18">
+        <v>3600.21</v>
       </c>
       <c r="O16" s="6">
         <v>708</v>
@@ -1671,7 +1672,7 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="18">
         <v>515.1</v>
       </c>
       <c r="T16" s="6">
@@ -1683,15 +1684,15 @@
       <c r="V16" s="7">
         <v>49.72</v>
       </c>
-      <c r="W16" s="3">
-        <v>3600</v>
+      <c r="W16" s="18">
+        <v>3600.23</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1710,8 +1711,8 @@
       <c r="G17" s="5">
         <v>27.27</v>
       </c>
-      <c r="H17" s="4">
-        <v>3600</v>
+      <c r="H17" s="16">
+        <v>3600.08</v>
       </c>
       <c r="J17" s="6">
         <v>682</v>
@@ -1722,8 +1723,8 @@
       <c r="L17" s="7">
         <v>24.93</v>
       </c>
-      <c r="M17" s="3">
-        <v>3600</v>
+      <c r="M17" s="18">
+        <v>3600.15</v>
       </c>
       <c r="O17" s="6">
         <v>656</v>
@@ -1734,8 +1735,8 @@
       <c r="Q17" s="7">
         <v>7.39</v>
       </c>
-      <c r="R17" s="3">
-        <v>3600</v>
+      <c r="R17" s="18">
+        <v>3600.28</v>
       </c>
       <c r="T17" s="6">
         <v>634</v>
@@ -1746,15 +1747,15 @@
       <c r="V17" s="7">
         <v>19.239999999999998</v>
       </c>
-      <c r="W17" s="3">
-        <v>3600</v>
+      <c r="W17" s="18">
+        <v>3600.06</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1773,8 +1774,8 @@
       <c r="G18" s="5">
         <v>12.69</v>
       </c>
-      <c r="H18" s="4">
-        <v>3600</v>
+      <c r="H18" s="16">
+        <v>3600.31</v>
       </c>
       <c r="J18" s="6">
         <v>681</v>
@@ -1785,8 +1786,8 @@
       <c r="L18" s="7">
         <v>5.87</v>
       </c>
-      <c r="M18" s="3">
-        <v>3600</v>
+      <c r="M18" s="18">
+        <v>3600.16</v>
       </c>
       <c r="O18" s="6">
         <v>721</v>
@@ -1797,8 +1798,8 @@
       <c r="Q18" s="7">
         <v>11.1</v>
       </c>
-      <c r="R18" s="3">
-        <v>3600</v>
+      <c r="R18" s="18">
+        <v>3600.03</v>
       </c>
       <c r="T18" s="6">
         <v>641</v>
@@ -1809,7 +1810,7 @@
       <c r="V18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="18">
         <v>169.53</v>
       </c>
       <c r="Y18" s="6"/>
@@ -1817,7 +1818,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1836,8 +1837,8 @@
       <c r="G19" s="5">
         <v>63.55</v>
       </c>
-      <c r="H19" s="4">
-        <v>3600</v>
+      <c r="H19" s="16">
+        <v>3600.19</v>
       </c>
       <c r="J19" s="6">
         <v>783</v>
@@ -1848,8 +1849,8 @@
       <c r="L19" s="7">
         <v>60.54</v>
       </c>
-      <c r="M19" s="3">
-        <v>3600</v>
+      <c r="M19" s="18">
+        <v>3600.07</v>
       </c>
       <c r="O19" s="6">
         <v>779</v>
@@ -1860,8 +1861,8 @@
       <c r="Q19" s="7">
         <v>1.26</v>
       </c>
-      <c r="R19" s="3">
-        <v>3600</v>
+      <c r="R19" s="18">
+        <v>3600.18</v>
       </c>
       <c r="T19" s="6">
         <v>772</v>
@@ -1872,15 +1873,15 @@
       <c r="V19" s="7">
         <v>61.01</v>
       </c>
-      <c r="W19" s="3">
-        <v>3600</v>
+      <c r="W19" s="18">
+        <v>3600.04</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1899,8 +1900,8 @@
       <c r="G20" s="5">
         <v>60.1</v>
       </c>
-      <c r="H20" s="4">
-        <v>3600</v>
+      <c r="H20" s="16">
+        <v>3600.22</v>
       </c>
       <c r="J20" s="6">
         <v>778</v>
@@ -1911,8 +1912,8 @@
       <c r="L20" s="7">
         <v>58.61</v>
       </c>
-      <c r="M20" s="3">
-        <v>3600</v>
+      <c r="M20" s="18">
+        <v>3600.22</v>
       </c>
       <c r="O20" s="6">
         <v>764</v>
@@ -1923,7 +1924,7 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="18">
         <v>3079.38</v>
       </c>
       <c r="T20" s="6">
@@ -1935,15 +1936,15 @@
       <c r="V20" s="7">
         <v>58.18</v>
       </c>
-      <c r="W20" s="3">
-        <v>3600</v>
+      <c r="W20" s="18">
+        <v>3600.19</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1962,8 +1963,8 @@
       <c r="G21" s="5">
         <v>5.36</v>
       </c>
-      <c r="H21" s="4">
-        <v>3600</v>
+      <c r="H21" s="16">
+        <v>3600.02</v>
       </c>
       <c r="J21" s="6">
         <v>526</v>
@@ -1974,8 +1975,8 @@
       <c r="L21" s="7">
         <v>2.66</v>
       </c>
-      <c r="M21" s="3">
-        <v>3600</v>
+      <c r="M21" s="18">
+        <v>3600.09</v>
       </c>
       <c r="O21" s="6">
         <v>512</v>
@@ -1986,7 +1987,7 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="18">
         <v>768.84</v>
       </c>
       <c r="T21" s="6">
@@ -1998,7 +1999,7 @@
       <c r="V21" s="7">
         <v>0</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="18">
         <v>3.24</v>
       </c>
       <c r="Y21" s="6"/>
@@ -2006,7 +2007,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2025,8 +2026,8 @@
       <c r="G22" s="5">
         <v>38.090000000000003</v>
       </c>
-      <c r="H22" s="4">
-        <v>3600</v>
+      <c r="H22" s="16">
+        <v>3600.27</v>
       </c>
       <c r="J22" s="6">
         <v>688</v>
@@ -2037,8 +2038,8 @@
       <c r="L22" s="7">
         <v>36.92</v>
       </c>
-      <c r="M22" s="3">
-        <v>3600</v>
+      <c r="M22" s="18">
+        <v>3600.13</v>
       </c>
       <c r="O22" s="6">
         <v>663</v>
@@ -2049,8 +2050,8 @@
       <c r="Q22" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R22" s="3">
-        <v>3600</v>
+      <c r="R22" s="18">
+        <v>3600.22</v>
       </c>
       <c r="T22" s="6">
         <v>663</v>
@@ -2061,15 +2062,15 @@
       <c r="V22" s="7">
         <v>34.54</v>
       </c>
-      <c r="W22" s="3">
-        <v>3600</v>
+      <c r="W22" s="18">
+        <v>3600.25</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -2088,8 +2089,8 @@
       <c r="G23" s="5">
         <v>42.92</v>
       </c>
-      <c r="H23" s="4">
-        <v>3600</v>
+      <c r="H23" s="16">
+        <v>3600.14</v>
       </c>
       <c r="J23" s="6">
         <v>786</v>
@@ -2100,8 +2101,8 @@
       <c r="L23" s="7">
         <v>35.880000000000003</v>
       </c>
-      <c r="M23" s="3">
-        <v>3600</v>
+      <c r="M23" s="18">
+        <v>3600.28</v>
       </c>
       <c r="O23" s="6">
         <v>758</v>
@@ -2112,8 +2113,8 @@
       <c r="Q23" s="7">
         <v>1.17</v>
       </c>
-      <c r="R23" s="3">
-        <v>3600</v>
+      <c r="R23" s="18">
+        <v>3600.02</v>
       </c>
       <c r="T23" s="6">
         <v>758</v>
@@ -2124,15 +2125,15 @@
       <c r="V23" s="7">
         <v>33.51</v>
       </c>
-      <c r="W23" s="3">
-        <v>3600</v>
+      <c r="W23" s="18">
+        <v>3600.09</v>
       </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -2151,8 +2152,8 @@
       <c r="G24" s="7">
         <v>35.64</v>
       </c>
-      <c r="H24" s="4">
-        <v>3600</v>
+      <c r="H24" s="16">
+        <v>3600.31</v>
       </c>
       <c r="J24" s="2">
         <v>715</v>
@@ -2163,8 +2164,8 @@
       <c r="L24" s="5">
         <v>35.1</v>
       </c>
-      <c r="M24" s="3">
-        <v>3600</v>
+      <c r="M24" s="18">
+        <v>3600.04</v>
       </c>
       <c r="O24" s="2">
         <v>697</v>
@@ -2175,8 +2176,8 @@
       <c r="Q24" s="5">
         <v>6.78</v>
       </c>
-      <c r="R24" s="3">
-        <v>3600</v>
+      <c r="R24" s="18">
+        <v>3600.12</v>
       </c>
       <c r="T24" s="6">
         <v>662</v>
@@ -2187,15 +2188,15 @@
       <c r="V24" s="5">
         <v>29.91</v>
       </c>
-      <c r="W24" s="3">
-        <v>3600</v>
+      <c r="W24" s="18">
+        <v>3600.24</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -2214,8 +2215,8 @@
       <c r="G25" s="5">
         <v>9.82</v>
       </c>
-      <c r="H25" s="4">
-        <v>3600</v>
+      <c r="H25" s="16">
+        <v>3600.17</v>
       </c>
       <c r="J25" s="6">
         <v>468</v>
@@ -2226,8 +2227,8 @@
       <c r="L25" s="7">
         <v>3.85</v>
       </c>
-      <c r="M25" s="3">
-        <v>3600</v>
+      <c r="M25" s="18">
+        <v>3600.19</v>
       </c>
       <c r="O25" s="6">
         <v>476</v>
@@ -2238,8 +2239,8 @@
       <c r="Q25" s="7">
         <v>5.46</v>
       </c>
-      <c r="R25" s="3">
-        <v>3600</v>
+      <c r="R25" s="18">
+        <v>3600.27</v>
       </c>
       <c r="T25" s="6">
         <v>461</v>
@@ -2250,15 +2251,15 @@
       <c r="V25" s="7">
         <v>2.39</v>
       </c>
-      <c r="W25" s="3">
-        <v>3600</v>
+      <c r="W25" s="18">
+        <v>3600.15</v>
       </c>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2277,8 +2278,8 @@
       <c r="G26" s="5">
         <v>17.5</v>
       </c>
-      <c r="H26" s="4">
-        <v>3600</v>
+      <c r="H26" s="16">
+        <v>3600.33</v>
       </c>
       <c r="J26" s="6">
         <v>574</v>
@@ -2289,8 +2290,8 @@
       <c r="L26" s="7">
         <v>17.07</v>
       </c>
-      <c r="M26" s="3">
-        <v>3600</v>
+      <c r="M26" s="18">
+        <v>3600.07</v>
       </c>
       <c r="O26" s="6">
         <v>545</v>
@@ -2301,8 +2302,8 @@
       <c r="Q26" s="7">
         <v>8.8699999999999992</v>
       </c>
-      <c r="R26" s="3">
-        <v>3600</v>
+      <c r="R26" s="18">
+        <v>3600.03</v>
       </c>
       <c r="T26" s="6">
         <v>541</v>
@@ -2313,15 +2314,15 @@
       <c r="V26" s="7">
         <v>12.01</v>
       </c>
-      <c r="W26" s="3">
-        <v>3600</v>
+      <c r="W26" s="18">
+        <v>3600.14</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -2340,8 +2341,8 @@
       <c r="G27" s="5">
         <v>27.81</v>
       </c>
-      <c r="H27" s="4">
-        <v>3600</v>
+      <c r="H27" s="16">
+        <v>3600.06</v>
       </c>
       <c r="J27" s="6">
         <v>774</v>
@@ -2352,8 +2353,8 @@
       <c r="L27" s="7">
         <v>24.55</v>
       </c>
-      <c r="M27" s="3">
-        <v>3600</v>
+      <c r="M27" s="18">
+        <v>3600.1</v>
       </c>
       <c r="O27" s="6">
         <v>739</v>
@@ -2364,8 +2365,8 @@
       <c r="Q27" s="7">
         <v>9.51</v>
       </c>
-      <c r="R27" s="3">
-        <v>3600</v>
+      <c r="R27" s="18">
+        <v>3600.18</v>
       </c>
       <c r="T27" s="6">
         <v>693</v>
@@ -2376,15 +2377,15 @@
       <c r="V27" s="7">
         <v>15.73</v>
       </c>
-      <c r="W27" s="3">
-        <v>3600</v>
+      <c r="W27" s="18">
+        <v>3600.11</v>
       </c>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2403,8 +2404,8 @@
       <c r="G28" s="5">
         <v>25.66</v>
       </c>
-      <c r="H28" s="4">
-        <v>3600</v>
+      <c r="H28" s="16">
+        <v>3600.21</v>
       </c>
       <c r="J28" s="6">
         <v>726</v>
@@ -2415,8 +2416,8 @@
       <c r="L28" s="7">
         <v>22.18</v>
       </c>
-      <c r="M28" s="3">
-        <v>3600</v>
+      <c r="M28" s="18">
+        <v>3600.25</v>
       </c>
       <c r="O28" s="6">
         <v>701</v>
@@ -2427,8 +2428,8 @@
       <c r="Q28" s="7">
         <v>4.97</v>
       </c>
-      <c r="R28" s="3">
-        <v>3600</v>
+      <c r="R28" s="18">
+        <v>3600.01</v>
       </c>
       <c r="T28" s="6">
         <v>690</v>
@@ -2439,15 +2440,15 @@
       <c r="V28" s="7">
         <v>18.12</v>
       </c>
-      <c r="W28" s="3">
-        <v>3600</v>
+      <c r="W28" s="18">
+        <v>3600.05</v>
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -2466,8 +2467,8 @@
       <c r="G29" s="5">
         <v>42.12</v>
       </c>
-      <c r="H29" s="4">
-        <v>3600</v>
+      <c r="H29" s="16">
+        <v>3600.03</v>
       </c>
       <c r="J29" s="6">
         <v>856</v>
@@ -2478,8 +2479,8 @@
       <c r="L29" s="7">
         <v>41.24</v>
       </c>
-      <c r="M29" s="3">
-        <v>3600</v>
+      <c r="M29" s="18">
+        <v>3600.01</v>
       </c>
       <c r="O29" s="6">
         <v>816</v>
@@ -2490,8 +2491,8 @@
       <c r="Q29" s="7">
         <v>7.18</v>
       </c>
-      <c r="R29" s="3">
-        <v>3600</v>
+      <c r="R29" s="18">
+        <v>3600.08</v>
       </c>
       <c r="T29" s="6">
         <v>770</v>
@@ -2502,15 +2503,15 @@
       <c r="V29" s="7">
         <v>34.68</v>
       </c>
-      <c r="W29" s="3">
-        <v>3600</v>
+      <c r="W29" s="18">
+        <v>3600.2</v>
       </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +2530,8 @@
       <c r="G30" s="5">
         <v>7.76</v>
       </c>
-      <c r="H30" s="4">
-        <v>3600</v>
+      <c r="H30" s="16">
+        <v>3600.11</v>
       </c>
       <c r="J30" s="6">
         <v>551</v>
@@ -2541,8 +2542,8 @@
       <c r="L30" s="7">
         <v>2.9</v>
       </c>
-      <c r="M30" s="3">
-        <v>3600</v>
+      <c r="M30" s="18">
+        <v>3600.16</v>
       </c>
       <c r="O30" s="6">
         <v>535</v>
@@ -2553,7 +2554,7 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="18">
         <v>1735.91</v>
       </c>
       <c r="T30" s="6">
@@ -2565,7 +2566,7 @@
       <c r="V30" s="7">
         <v>0</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="18">
         <v>6.69</v>
       </c>
       <c r="Y30" s="6"/>
@@ -2573,7 +2574,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2592,8 +2593,8 @@
       <c r="G31" s="5">
         <v>9.91</v>
       </c>
-      <c r="H31" s="4">
-        <v>3600</v>
+      <c r="H31" s="16">
+        <v>3600.25</v>
       </c>
       <c r="J31" s="6">
         <v>637</v>
@@ -2604,8 +2605,8 @@
       <c r="L31" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M31" s="3">
-        <v>3600</v>
+      <c r="M31" s="18">
+        <v>3600.31</v>
       </c>
       <c r="O31" s="6">
         <v>643</v>
@@ -2616,8 +2617,8 @@
       <c r="Q31" s="7">
         <v>5.29</v>
       </c>
-      <c r="R31" s="3">
-        <v>3600</v>
+      <c r="R31" s="18">
+        <v>3600.23</v>
       </c>
       <c r="T31" s="6">
         <v>619</v>
@@ -2628,15 +2629,15 @@
       <c r="V31" s="7">
         <v>1.62</v>
       </c>
-      <c r="W31" s="3">
-        <v>3600</v>
+      <c r="W31" s="18">
+        <v>3600.35</v>
       </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2655,8 +2656,8 @@
       <c r="G32" s="5">
         <v>17.78</v>
       </c>
-      <c r="H32" s="4">
-        <v>3600</v>
+      <c r="H32" s="16">
+        <v>3600.01</v>
       </c>
       <c r="J32" s="6">
         <v>562</v>
@@ -2667,8 +2668,8 @@
       <c r="L32" s="7">
         <v>16.899999999999999</v>
       </c>
-      <c r="M32" s="3">
-        <v>3600</v>
+      <c r="M32" s="18">
+        <v>3600.07</v>
       </c>
       <c r="O32" s="6">
         <v>548</v>
@@ -2679,8 +2680,8 @@
       <c r="Q32" s="7">
         <v>10.49</v>
       </c>
-      <c r="R32" s="3">
-        <v>3600</v>
+      <c r="R32" s="18">
+        <v>3600.04</v>
       </c>
       <c r="T32" s="6">
         <v>523</v>
@@ -2691,71 +2692,72 @@
       <c r="V32" s="7">
         <v>10.71</v>
       </c>
-      <c r="W32" s="3">
-        <v>3600</v>
+      <c r="W32" s="18">
+        <v>3600.1</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11">
         <f>AVERAGE(G3:G32)</f>
         <v>22.135666666666665</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="17">
         <f>AVERAGE(H3:H32)</f>
-        <v>2987.8410000000003</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13">
+        <v>2987.980333333333</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11">
         <f t="shared" ref="L33:R33" si="0">AVERAGE(L3:L32)</f>
         <v>19.876666666666669</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="17">
         <f t="shared" si="0"/>
-        <v>2800.286333333333</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13">
+        <v>2800.4053333333336</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="11">
         <f t="shared" si="0"/>
         <v>3.0506666666666669</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="17">
         <f t="shared" si="0"/>
-        <v>2118.5473333333334</v>
-      </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="13">
+        <v>2118.6163333333338</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11">
         <f t="shared" ref="V33:W33" si="1">AVERAGE(V3:V32)</f>
         <v>17.003</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="17">
         <f t="shared" si="1"/>
-        <v>2170.7713333333331</v>
+        <v>2170.8679999999999</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
+      <c r="R34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2779,103 +2781,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="15" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2894,10 +2896,10 @@
       <c r="G3" s="5">
         <v>5.0599999999999996</v>
       </c>
-      <c r="H3" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="7">
+        <v>3600.12</v>
+      </c>
+      <c r="J3" s="6">
         <v>257</v>
       </c>
       <c r="K3" s="4">
@@ -2906,7 +2908,7 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>537.82000000000005</v>
       </c>
       <c r="O3" s="6">
@@ -2918,15 +2920,15 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <v>0.52</v>
+      <c r="R3" s="7">
+        <v>0.46</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="3"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2945,10 +2947,10 @@
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>1755.99</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>289</v>
       </c>
       <c r="K4" s="4">
@@ -2957,7 +2959,7 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>41.43</v>
       </c>
       <c r="O4" s="6">
@@ -2969,15 +2971,15 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
-        <v>0.97</v>
+      <c r="R4" s="7">
+        <v>0.88</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="3"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2996,7 +2998,7 @@
       <c r="G5" s="5">
         <v>0.35</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>3600.17</v>
       </c>
       <c r="J5" s="6">
@@ -3008,8 +3010,8 @@
       <c r="L5" s="7">
         <v>0.17</v>
       </c>
-      <c r="M5" s="9">
-        <v>3600</v>
+      <c r="M5" s="7">
+        <v>3600.13</v>
       </c>
       <c r="O5" s="6">
         <v>576</v>
@@ -3020,15 +3022,15 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0.06</v>
+      <c r="R5" s="7">
+        <v>0.04</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="3"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3047,7 +3049,7 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>6.63</v>
       </c>
       <c r="J6" s="6">
@@ -3059,7 +3061,7 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>14.39</v>
       </c>
       <c r="O6" s="6">
@@ -3071,15 +3073,15 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0.03</v>
+      <c r="R6" s="7">
+        <v>0.04</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="3"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3098,7 +3100,7 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>140.37</v>
       </c>
       <c r="J7" s="6">
@@ -3110,7 +3112,7 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>101.01</v>
       </c>
       <c r="O7" s="6">
@@ -3122,15 +3124,15 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>2.82</v>
+      <c r="R7" s="7">
+        <v>2.35</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="3"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3149,7 +3151,7 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>851.22</v>
       </c>
       <c r="J8" s="6">
@@ -3161,7 +3163,7 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>2442.88</v>
       </c>
       <c r="O8" s="6">
@@ -3173,8 +3175,8 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>296.58999999999997</v>
+      <c r="R8" s="7">
+        <v>133.09</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -3185,7 +3187,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3204,10 +3206,10 @@
       <c r="G9" s="5">
         <v>20.71</v>
       </c>
-      <c r="H9" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="H9" s="7">
+        <v>3600.11</v>
+      </c>
+      <c r="J9" s="6">
         <v>595</v>
       </c>
       <c r="K9" s="4">
@@ -3216,8 +3218,8 @@
       <c r="L9" s="7">
         <v>17.649999999999999</v>
       </c>
-      <c r="M9" s="9">
-        <v>3600</v>
+      <c r="M9" s="7">
+        <v>3600.22</v>
       </c>
       <c r="O9" s="6">
         <v>505</v>
@@ -3228,8 +3230,8 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>7.77</v>
+      <c r="R9" s="7">
+        <v>5.68</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -3240,7 +3242,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3259,10 +3261,10 @@
       <c r="G10" s="5">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H10" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="H10" s="7">
+        <v>3600.05</v>
+      </c>
+      <c r="J10" s="6">
         <v>665</v>
       </c>
       <c r="K10" s="4">
@@ -3271,7 +3273,7 @@
       <c r="L10" s="7">
         <v>5.56</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>3600.19</v>
       </c>
       <c r="O10" s="6">
@@ -3283,8 +3285,8 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0.05</v>
+      <c r="R10" s="7">
+        <v>0.06</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -3295,7 +3297,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3314,7 +3316,7 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>156.19999999999999</v>
       </c>
       <c r="J11" s="6">
@@ -3326,7 +3328,7 @@
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>162.27000000000001</v>
       </c>
       <c r="O11" s="6">
@@ -3338,7 +3340,7 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>298.2</v>
       </c>
       <c r="T11" s="6"/>
@@ -3350,7 +3352,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>34.950000000000003</v>
       </c>
       <c r="J12" s="6">
@@ -3381,7 +3383,7 @@
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>13.52</v>
       </c>
       <c r="O12" s="6">
@@ -3393,7 +3395,7 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="7">
         <v>214.54</v>
       </c>
       <c r="T12" s="6"/>
@@ -3405,7 +3407,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3424,10 +3426,10 @@
       <c r="G13" s="5">
         <v>5.19</v>
       </c>
-      <c r="H13" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="H13" s="7">
+        <v>3600.15</v>
+      </c>
+      <c r="J13" s="6">
         <v>702</v>
       </c>
       <c r="K13" s="4">
@@ -3436,8 +3438,8 @@
       <c r="L13" s="7">
         <v>6.27</v>
       </c>
-      <c r="M13" s="9">
-        <v>3600</v>
+      <c r="M13" s="7">
+        <v>3600.12</v>
       </c>
       <c r="O13" s="6">
         <v>658</v>
@@ -3448,8 +3450,8 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>1.62</v>
+      <c r="R13" s="7">
+        <v>1.08</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -3460,7 +3462,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3479,10 +3481,10 @@
       <c r="G14" s="5">
         <v>12.16</v>
       </c>
-      <c r="H14" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="H14" s="7">
+        <v>3600.23</v>
+      </c>
+      <c r="J14" s="6">
         <v>630</v>
       </c>
       <c r="K14" s="4">
@@ -3491,7 +3493,7 @@
       <c r="L14" s="7">
         <v>11.79</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>3600.24</v>
       </c>
       <c r="O14" s="6">
@@ -3503,8 +3505,8 @@
       <c r="Q14" s="7">
         <v>6.56</v>
       </c>
-      <c r="R14" s="3">
-        <v>3600</v>
+      <c r="R14" s="7">
+        <v>3600.12</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -3515,7 +3517,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3536,7 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>32.840000000000003</v>
       </c>
       <c r="J15" s="6">
@@ -3546,7 +3548,7 @@
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>9.85</v>
       </c>
       <c r="O15" s="6">
@@ -3558,7 +3560,7 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="7">
         <v>213.95</v>
       </c>
       <c r="T15" s="6"/>
@@ -3570,7 +3572,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>29.05</v>
       </c>
       <c r="J16" s="6">
@@ -3601,7 +3603,7 @@
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>4.3600000000000003</v>
       </c>
       <c r="O16" s="6">
@@ -3613,7 +3615,7 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="7">
         <v>204.78</v>
       </c>
       <c r="T16" s="6"/>
@@ -3625,7 +3627,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -3644,10 +3646,10 @@
       <c r="G17" s="5">
         <v>9.0500000000000007</v>
       </c>
-      <c r="H17" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="H17" s="7">
+        <v>3600.02</v>
+      </c>
+      <c r="J17" s="6">
         <v>652</v>
       </c>
       <c r="K17" s="4">
@@ -3656,7 +3658,7 @@
       <c r="L17" s="7">
         <v>6.86</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>3600.31</v>
       </c>
       <c r="O17" s="6">
@@ -3668,8 +3670,8 @@
       <c r="Q17" s="7">
         <v>4.6399999999999997</v>
       </c>
-      <c r="R17" s="3">
-        <v>3600</v>
+      <c r="R17" s="7">
+        <v>3600.23</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -3680,7 +3682,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3699,10 +3701,10 @@
       <c r="G18" s="5">
         <v>15.34</v>
       </c>
-      <c r="H18" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="H18" s="7">
+        <v>3600.17</v>
+      </c>
+      <c r="J18" s="6">
         <v>724</v>
       </c>
       <c r="K18" s="4">
@@ -3711,8 +3713,8 @@
       <c r="L18" s="7">
         <v>11.6</v>
       </c>
-      <c r="M18" s="9">
-        <v>3600</v>
+      <c r="M18" s="7">
+        <v>3600.31</v>
       </c>
       <c r="O18" s="6">
         <v>641</v>
@@ -3723,7 +3725,7 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="7">
         <v>169.53</v>
       </c>
       <c r="T18" s="6"/>
@@ -3735,7 +3737,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -3754,7 +3756,7 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>16.79</v>
       </c>
       <c r="J19" s="6">
@@ -3766,7 +3768,7 @@
       <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <v>5.93</v>
       </c>
       <c r="O19" s="6">
@@ -3778,7 +3780,7 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="7">
         <v>321.61</v>
       </c>
       <c r="T19" s="6"/>
@@ -3790,7 +3792,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -3809,7 +3811,7 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>3.04</v>
       </c>
       <c r="J20" s="6">
@@ -3821,7 +3823,7 @@
       <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>3.29</v>
       </c>
       <c r="O20" s="6">
@@ -3833,7 +3835,7 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="7">
         <v>212.05</v>
       </c>
       <c r="T20" s="6"/>
@@ -3845,7 +3847,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -3864,10 +3866,10 @@
       <c r="G21" s="5">
         <v>1.35</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>3600.22</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>533</v>
       </c>
       <c r="K21" s="4">
@@ -3876,7 +3878,7 @@
       <c r="L21" s="7">
         <v>3.94</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="7">
         <v>3600.2</v>
       </c>
       <c r="O21" s="6">
@@ -3888,8 +3890,8 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <v>4.59</v>
+      <c r="R21" s="7">
+        <v>3.24</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -3900,7 +3902,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="G22" s="5">
         <v>0.5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>3600.33</v>
       </c>
       <c r="J22" s="6">
@@ -3931,7 +3933,7 @@
       <c r="L22" s="7">
         <v>0.52</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>3600.14</v>
       </c>
       <c r="O22" s="6">
@@ -3943,8 +3945,8 @@
       <c r="Q22" s="7">
         <v>0.47</v>
       </c>
-      <c r="R22" s="3">
-        <v>3600</v>
+      <c r="R22" s="7">
+        <v>3600.07</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -3955,7 +3957,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -3974,7 +3976,7 @@
       <c r="G23" s="5">
         <v>0.37</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>3600.06</v>
       </c>
       <c r="J23" s="6">
@@ -3986,7 +3988,7 @@
       <c r="L23" s="7">
         <v>0.31</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="7">
         <v>3600.11</v>
       </c>
       <c r="O23" s="6">
@@ -3998,8 +4000,8 @@
       <c r="Q23" s="7">
         <v>0.21</v>
       </c>
-      <c r="R23" s="3">
-        <v>3600</v>
+      <c r="R23" s="7">
+        <v>3600.2</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -4010,7 +4012,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4031,7 @@
       <c r="G24" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>3600.21</v>
       </c>
       <c r="J24" s="6">
@@ -4041,8 +4043,8 @@
       <c r="L24" s="5">
         <v>0.78</v>
       </c>
-      <c r="M24" s="9">
-        <v>3600</v>
+      <c r="M24" s="7">
+        <v>3600.15</v>
       </c>
       <c r="O24" s="6">
         <v>656</v>
@@ -4053,8 +4055,8 @@
       <c r="Q24" s="5">
         <v>0.74</v>
       </c>
-      <c r="R24" s="3">
-        <v>3600</v>
+      <c r="R24" s="7">
+        <v>3600.15</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -4065,7 +4067,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -4084,10 +4086,10 @@
       <c r="G25" s="5">
         <v>15.89</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>3600.29</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>517</v>
       </c>
       <c r="K25" s="4">
@@ -4096,7 +4098,7 @@
       <c r="L25" s="7">
         <v>12.96</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="7">
         <v>3600.05</v>
       </c>
       <c r="O25" s="6">
@@ -4108,8 +4110,8 @@
       <c r="Q25" s="7">
         <v>2.39</v>
       </c>
-      <c r="R25" s="3">
-        <v>3600</v>
+      <c r="R25" s="7">
+        <v>3600.33</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -4120,7 +4122,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -4139,10 +4141,10 @@
       <c r="G26" s="5">
         <v>14.98</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>3600.4</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>586</v>
       </c>
       <c r="K26" s="4">
@@ -4151,8 +4153,8 @@
       <c r="L26" s="7">
         <v>15.29</v>
       </c>
-      <c r="M26" s="9">
-        <v>3600</v>
+      <c r="M26" s="7">
+        <v>3600.02</v>
       </c>
       <c r="O26" s="6">
         <v>541</v>
@@ -4163,8 +4165,8 @@
       <c r="Q26" s="7">
         <v>8.2100000000000009</v>
       </c>
-      <c r="R26" s="3">
-        <v>3600</v>
+      <c r="R26" s="7">
+        <v>3600.15</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -4175,7 +4177,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -4194,10 +4196,10 @@
       <c r="G27" s="5">
         <v>10.5</v>
       </c>
-      <c r="H27" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="H27" s="7">
+        <v>3600.22</v>
+      </c>
+      <c r="J27" s="6">
         <v>758</v>
       </c>
       <c r="K27" s="4">
@@ -4206,8 +4208,8 @@
       <c r="L27" s="7">
         <v>11.81</v>
       </c>
-      <c r="M27" s="9">
-        <v>3600</v>
+      <c r="M27" s="7">
+        <v>3600.08</v>
       </c>
       <c r="O27" s="6">
         <v>693</v>
@@ -4218,8 +4220,8 @@
       <c r="Q27" s="7">
         <v>3.52</v>
       </c>
-      <c r="R27" s="3">
-        <v>3600</v>
+      <c r="R27" s="7">
+        <v>3600.21</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -4230,7 +4232,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -4249,10 +4251,10 @@
       <c r="G28" s="5">
         <v>4.3899999999999997</v>
       </c>
-      <c r="H28" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="H28" s="7">
+        <v>3600.18</v>
+      </c>
+      <c r="J28" s="6">
         <v>690</v>
       </c>
       <c r="K28" s="4">
@@ -4261,7 +4263,7 @@
       <c r="L28" s="7">
         <v>3.35</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <v>3600.32</v>
       </c>
       <c r="O28" s="6">
@@ -4273,8 +4275,8 @@
       <c r="Q28" s="7">
         <v>3.48</v>
       </c>
-      <c r="R28" s="3">
-        <v>3600</v>
+      <c r="R28" s="7">
+        <v>3600.22</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -4285,7 +4287,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -4304,10 +4306,10 @@
       <c r="G29" s="5">
         <v>1.68</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>3600.07</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>763</v>
       </c>
       <c r="K29" s="4">
@@ -4316,7 +4318,7 @@
       <c r="L29" s="7">
         <v>0.73</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="7">
         <v>3600.31</v>
       </c>
       <c r="O29" s="6">
@@ -4328,8 +4330,8 @@
       <c r="Q29" s="7">
         <v>0.71</v>
       </c>
-      <c r="R29" s="3">
-        <v>3600</v>
+      <c r="R29" s="7">
+        <v>3600.04</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -4340,7 +4342,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -4359,10 +4361,10 @@
       <c r="G30" s="5">
         <v>12.15</v>
       </c>
-      <c r="H30" s="4">
-        <v>3600.07</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="H30" s="5">
+        <v>3600.09</v>
+      </c>
+      <c r="J30" s="6">
         <v>598</v>
       </c>
       <c r="K30" s="4">
@@ -4371,7 +4373,7 @@
       <c r="L30" s="7">
         <v>10.54</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="7">
         <v>3600.34</v>
       </c>
       <c r="O30" s="6">
@@ -4383,8 +4385,8 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="3">
-        <v>6.91</v>
+      <c r="R30" s="7">
+        <v>6.69</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -4395,7 +4397,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -4414,10 +4416,10 @@
       <c r="G31" s="5">
         <v>14.83</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>3600.27</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>687</v>
       </c>
       <c r="K31" s="4">
@@ -4426,7 +4428,7 @@
       <c r="L31" s="7">
         <v>11.35</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="7">
         <v>3600.07</v>
       </c>
       <c r="O31" s="6">
@@ -4438,8 +4440,8 @@
       <c r="Q31" s="7">
         <v>2.09</v>
       </c>
-      <c r="R31" s="3">
-        <v>3600</v>
+      <c r="R31" s="7">
+        <v>3600.11</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -4450,7 +4452,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -4469,10 +4471,10 @@
       <c r="G32" s="5">
         <v>15.52</v>
       </c>
-      <c r="H32" s="9">
-        <v>3600</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="H32" s="7">
+        <v>3600.14</v>
+      </c>
+      <c r="J32" s="6">
         <v>551</v>
       </c>
       <c r="K32" s="4">
@@ -4481,7 +4483,7 @@
       <c r="L32" s="7">
         <v>11.09</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="7">
         <v>3600.21</v>
       </c>
       <c r="O32" s="6">
@@ -4493,8 +4495,8 @@
       <c r="Q32" s="7">
         <v>6.28</v>
       </c>
-      <c r="R32" s="3">
-        <v>3600</v>
+      <c r="R32" s="7">
+        <v>3600.29</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -4505,51 +4507,51 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11">
         <f>AVERAGE(G3:G32)</f>
         <v>5.7146666666666679</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="11">
         <f>AVERAGE(H3:H32)</f>
-        <v>2500.9723333333336</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13">
+        <v>2501.0193333333341</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11">
         <f t="shared" ref="L33:R33" si="0">AVERAGE(L3:L32)</f>
         <v>4.7523333333333335</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>2391.3080000000004</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13">
+        <v>2391.342333333334</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="11">
         <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="11">
         <f t="shared" si="0"/>
-        <v>1505.2196666666669</v>
+        <v>1499.6796666666669</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="4"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
